--- a/dados_processados/hemoprod_am.xlsx
+++ b/dados_processados/hemoprod_am.xlsx
@@ -11889,7 +11889,7 @@
         <v>4</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.183</v>
+        <v>1</v>
       </c>
       <c r="DC14" t="n">
         <v>60</v>
@@ -11907,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="DH14" t="n">
-        <v>3.139</v>
+        <v>3</v>
       </c>
       <c r="DI14" t="n">
         <v>137</v>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="ED15" t="inlineStr"/>
       <c r="EE15" t="n">
-        <v>4.817</v>
+        <v>5</v>
       </c>
       <c r="EF15" t="n">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>3.537</v>
+        <v>4</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="ET15" t="n">
-        <v>2.856</v>
+        <v>3</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="DB29" t="n">
-        <v>1.194</v>
+        <v>1</v>
       </c>
       <c r="DC29" t="n">
         <v>53</v>
@@ -24132,7 +24132,7 @@
         <v>9</v>
       </c>
       <c r="DH29" t="n">
-        <v>3.042</v>
+        <v>3</v>
       </c>
       <c r="DI29" t="n">
         <v>15</v>
